--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>61.9442646948221</v>
+        <v>229.7126223670014</v>
       </c>
       <c r="R2">
-        <v>557.498382253399</v>
+        <v>2067.413601303013</v>
       </c>
       <c r="S2">
-        <v>0.02090678169092002</v>
+        <v>0.08442720364162128</v>
       </c>
       <c r="T2">
-        <v>0.02090678169092003</v>
+        <v>0.08442720364162129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>31.15178269536578</v>
+        <v>107.0421366442324</v>
       </c>
       <c r="R3">
-        <v>280.366044258292</v>
+        <v>963.3792297980918</v>
       </c>
       <c r="S3">
-        <v>0.01051402455584291</v>
+        <v>0.03934162683606663</v>
       </c>
       <c r="T3">
-        <v>0.01051402455584291</v>
+        <v>0.03934162683606663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>10.08200213763445</v>
+        <v>29.99038701240389</v>
       </c>
       <c r="R4">
-        <v>90.73801923871001</v>
+        <v>269.9134831116349</v>
       </c>
       <c r="S4">
-        <v>0.003402772132938589</v>
+        <v>0.01102248751286287</v>
       </c>
       <c r="T4">
-        <v>0.003402772132938589</v>
+        <v>0.01102248751286287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>29.82901169675678</v>
+        <v>108.0099590757954</v>
       </c>
       <c r="R5">
-        <v>268.461105270811</v>
+        <v>972.0896316821591</v>
       </c>
       <c r="S5">
-        <v>0.01006757669450748</v>
+        <v>0.03969733450539947</v>
       </c>
       <c r="T5">
-        <v>0.01006757669450748</v>
+        <v>0.03969733450539947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>534.8892708202409</v>
+        <v>577.2657348646462</v>
       </c>
       <c r="R6">
-        <v>4814.003437382168</v>
+        <v>5195.391613781816</v>
       </c>
       <c r="S6">
-        <v>0.1805302439047103</v>
+        <v>0.2121647963901734</v>
       </c>
       <c r="T6">
-        <v>0.1805302439047104</v>
+        <v>0.2121647963901734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>268.9959177458383</v>
+        <v>268.9959177458382</v>
       </c>
       <c r="R7">
         <v>2420.963259712544</v>
       </c>
       <c r="S7">
-        <v>0.09078869457515756</v>
+        <v>0.09886515112786896</v>
       </c>
       <c r="T7">
-        <v>0.09078869457515756</v>
+        <v>0.09886515112786898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>87.05817719163556</v>
+        <v>75.36557033392445</v>
       </c>
       <c r="R8">
-        <v>783.5235947247201</v>
+        <v>678.2901330053199</v>
       </c>
       <c r="S8">
-        <v>0.02938296731621547</v>
+        <v>0.02769941106668248</v>
       </c>
       <c r="T8">
-        <v>0.02938296731621547</v>
+        <v>0.02769941106668247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>257.5737785309502</v>
+        <v>271.4280467312543</v>
       </c>
       <c r="R9">
-        <v>2318.164006778552</v>
+        <v>2442.852420581288</v>
       </c>
       <c r="S9">
-        <v>0.08693361336327383</v>
+        <v>0.0997590412720786</v>
       </c>
       <c r="T9">
-        <v>0.08693361336327383</v>
+        <v>0.09975904127207862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>773.5992566292184</v>
+        <v>496.2972649012526</v>
       </c>
       <c r="R10">
-        <v>6962.393309662966</v>
+        <v>4466.675384111273</v>
       </c>
       <c r="S10">
-        <v>0.2610971468349195</v>
+        <v>0.1824061290966171</v>
       </c>
       <c r="T10">
-        <v>0.2610971468349195</v>
+        <v>0.1824061290966171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>389.0432157769134</v>
+        <v>231.2660013991035</v>
       </c>
       <c r="R11">
-        <v>3501.388941992221</v>
+        <v>2081.394012591932</v>
       </c>
       <c r="S11">
-        <v>0.1313058056408136</v>
+        <v>0.08499812328253845</v>
       </c>
       <c r="T11">
-        <v>0.1313058056408136</v>
+        <v>0.08499812328253847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>125.9104357349834</v>
+        <v>64.79464164492612</v>
       </c>
       <c r="R12">
-        <v>1133.19392161485</v>
+        <v>583.1517748043351</v>
       </c>
       <c r="S12">
-        <v>0.04249597610834102</v>
+        <v>0.02381423514595639</v>
       </c>
       <c r="T12">
-        <v>0.04249597610834102</v>
+        <v>0.02381423514595639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H13">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>372.5236127715984</v>
+        <v>233.3569950099266</v>
       </c>
       <c r="R13">
-        <v>3352.712514944385</v>
+        <v>2100.21295508934</v>
       </c>
       <c r="S13">
-        <v>0.1257302816539794</v>
+        <v>0.08576663457101368</v>
       </c>
       <c r="T13">
-        <v>0.1257302816539794</v>
+        <v>0.08576663457101369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H14">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I14">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J14">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>9.444036429695444</v>
+        <v>13.21470019526889</v>
       </c>
       <c r="R14">
-        <v>84.99632786725901</v>
+        <v>118.93230175742</v>
       </c>
       <c r="S14">
-        <v>0.003187452605813928</v>
+        <v>0.004856851891518906</v>
       </c>
       <c r="T14">
-        <v>0.003187452605813928</v>
+        <v>0.004856851891518906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H15">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I15">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J15">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>4.749407747019112</v>
+        <v>6.157823324808889</v>
       </c>
       <c r="R15">
-        <v>42.74466972317201</v>
+        <v>55.42040992328</v>
       </c>
       <c r="S15">
-        <v>0.001602970531933571</v>
+        <v>0.002263209563652816</v>
       </c>
       <c r="T15">
-        <v>0.00160297053193357</v>
+        <v>0.002263209563652817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H16">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I16">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J16">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>1.537104297567778</v>
+        <v>1.725259887877778</v>
       </c>
       <c r="R16">
-        <v>13.83393867811</v>
+        <v>15.5273389909</v>
       </c>
       <c r="S16">
-        <v>0.0005187873993459597</v>
+        <v>0.000634091702875018</v>
       </c>
       <c r="T16">
-        <v>0.0005187873993459596</v>
+        <v>0.0006340917028750179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H17">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I17">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J17">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>4.547737785150112</v>
+        <v>6.21349933922889</v>
       </c>
       <c r="R17">
-        <v>40.92964006635101</v>
+        <v>55.92149405306001</v>
       </c>
       <c r="S17">
-        <v>0.001534904991286935</v>
+        <v>0.002283672393074011</v>
       </c>
       <c r="T17">
-        <v>0.001534904991286935</v>
+        <v>0.002283672393074011</v>
       </c>
     </row>
   </sheetData>
